--- a/Example/Distribution Files/S1984/MecE_265_Nobes/MecE265.xlsx
+++ b/Example/Distribution Files/S1984/MecE_265_Nobes/MecE265.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\Processing_Folders\Example\Distribution Files\S1984\MecE_265_Nobes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E585ED-ADE9-4EA2-A854-B95B9E373AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C88D86F-114E-4038-B43A-AC5CAAB6B77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="475" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -1913,32 +1913,6 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1976,6 +1950,32 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2786,40 +2786,40 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>7.6923076923076925</c:v>
+                  <c:v>7.5268817204301079</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.989010989010989</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.780219780219781</c:v>
+                  <c:v>19.35483870967742</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.780219780219781</c:v>
+                  <c:v>8.6021505376344098</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.186813186813188</c:v>
+                  <c:v>2.1505376344086025</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.6923076923076925</c:v>
+                  <c:v>7.5268817204301079</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.4945054945054945</c:v>
+                  <c:v>16.129032258064516</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.4945054945054945</c:v>
+                  <c:v>5.376344086021505</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.395604395604396</c:v>
+                  <c:v>15.053763440860216</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.296703296703297</c:v>
+                  <c:v>3.225806451612903</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.098901098901099</c:v>
+                  <c:v>13.978494623655912</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.098901098901099</c:v>
+                  <c:v>1.0752688172043012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4818,23 +4818,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="21" t="s">
@@ -4845,36 +4845,36 @@
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
       <c r="I3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="34"/>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="62"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="64"/>
+      <c r="G4" s="54"/>
       <c r="I4" s="3" t="s">
         <v>32</v>
       </c>
@@ -4890,50 +4890,50 @@
       <c r="D6" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="56" t="s">
+      <c r="E6" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="57"/>
-      <c r="G6" s="56" t="s">
+      <c r="F6" s="61"/>
+      <c r="G6" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="57"/>
-      <c r="I6" s="56" t="s">
+      <c r="H6" s="61"/>
+      <c r="I6" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="57"/>
+      <c r="J6" s="61"/>
       <c r="K6" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="56" t="s">
+      <c r="L6" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="57"/>
+      <c r="M6" s="61"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C7" s="30"/>
       <c r="D7" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="54" t="s">
+      <c r="F7" s="63"/>
+      <c r="G7" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="54" t="s">
+      <c r="H7" s="63"/>
+      <c r="I7" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="55"/>
+      <c r="J7" s="63"/>
       <c r="K7" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="54" t="s">
+      <c r="L7" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="55"/>
+      <c r="M7" s="63"/>
     </row>
     <row r="8" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="8" t="s">
@@ -5300,10 +5300,10 @@
       <c r="M19" s="14"/>
     </row>
     <row r="20" spans="2:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="51"/>
+      <c r="D20" s="66"/>
       <c r="E20" s="37">
         <f>SUM(E8:E19)</f>
         <v>0</v>
@@ -5335,18 +5335,18 @@
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="58" t="s">
+      <c r="C22" s="68"/>
+      <c r="D22" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="65" t="s">
+      <c r="I22" s="55" t="s">
         <v>15</v>
       </c>
       <c r="J22" s="4"/>
@@ -5356,32 +5356,32 @@
         <v>#VALUE!</v>
       </c>
       <c r="M22" s="6"/>
-      <c r="N22" s="67" t="s">
+      <c r="N22" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="O22" s="68" t="e">
+      <c r="O22" s="58" t="e">
         <f>$L$22/MAX($L$23,1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="49" t="s">
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="66"/>
+      <c r="I23" s="56"/>
       <c r="L23" s="1">
         <f>$E$20</f>
         <v>0</v>
       </c>
       <c r="M23" s="1"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="69"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="59"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C24" s="2" t="s">
@@ -5459,6 +5459,10 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="20">
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="D22:G22"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="C4:D4"/>
@@ -5475,10 +5479,6 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="B22:C23"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="D22:G22"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -5503,7 +5503,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:O3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.7" x14ac:dyDescent="0.4"/>
@@ -5525,23 +5525,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="21" t="s">
@@ -5552,46 +5552,46 @@
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
       <c r="I3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="60" t="s">
+      <c r="L3" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="34"/>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="62"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="64"/>
+      <c r="G4" s="54"/>
       <c r="I4" s="3" t="s">
         <v>32</v>
       </c>
       <c r="O4" s="36">
         <f>$E$20</f>
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.4">
@@ -5601,50 +5601,50 @@
       <c r="D6" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="56" t="s">
+      <c r="E6" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="57"/>
-      <c r="G6" s="56" t="s">
+      <c r="F6" s="61"/>
+      <c r="G6" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="57"/>
-      <c r="I6" s="56" t="s">
+      <c r="H6" s="61"/>
+      <c r="I6" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="57"/>
+      <c r="J6" s="61"/>
       <c r="K6" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="56" t="s">
+      <c r="L6" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="57"/>
+      <c r="M6" s="61"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C7" s="30"/>
       <c r="D7" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="54" t="s">
+      <c r="F7" s="63"/>
+      <c r="G7" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="54" t="s">
+      <c r="H7" s="63"/>
+      <c r="I7" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="55"/>
+      <c r="J7" s="63"/>
       <c r="K7" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="54" t="s">
+      <c r="L7" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="55"/>
+      <c r="M7" s="63"/>
     </row>
     <row r="8" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="8" t="s">
@@ -5664,12 +5664,12 @@
       <c r="H8" s="12"/>
       <c r="I8" s="42">
         <f t="shared" ref="I8:I19" si="1">E8/MAX($E$20,1)*100</f>
-        <v>7.6923076923076925</v>
+        <v>7.5268817204301079</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7">
         <f>SUM(I$8:I8)</f>
-        <v>7.6923076923076925</v>
+        <v>7.5268817204301079</v>
       </c>
       <c r="L8" s="45">
         <v>5</v>
@@ -5684,22 +5684,22 @@
         <v>4</v>
       </c>
       <c r="E9" s="39">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="11">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="42">
         <f t="shared" si="1"/>
-        <v>10.989010989010989</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7">
         <f>SUM(I$8:I9)</f>
-        <v>18.681318681318682</v>
+        <v>7.5268817204301079</v>
       </c>
       <c r="L9" s="46">
         <v>7</v>
@@ -5725,12 +5725,12 @@
       <c r="H10" s="12"/>
       <c r="I10" s="42">
         <f t="shared" si="1"/>
-        <v>19.780219780219781</v>
+        <v>19.35483870967742</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7">
         <f>SUM(I$8:I10)</f>
-        <v>38.461538461538467</v>
+        <v>26.881720430107528</v>
       </c>
       <c r="L10" s="45">
         <v>12</v>
@@ -5745,22 +5745,22 @@
         <v>3.3</v>
       </c>
       <c r="E11" s="39">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="11">
         <f t="shared" si="0"/>
-        <v>59.4</v>
+        <v>26.4</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="42">
         <f t="shared" si="1"/>
-        <v>19.780219780219781</v>
+        <v>8.6021505376344098</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7">
         <f>SUM(I$8:I11)</f>
-        <v>58.241758241758248</v>
+        <v>35.483870967741936</v>
       </c>
       <c r="L11" s="46">
         <v>15</v>
@@ -5776,22 +5776,22 @@
         <v>3</v>
       </c>
       <c r="E12" s="38">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="11">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="42">
         <f t="shared" si="1"/>
-        <v>13.186813186813188</v>
+        <v>2.1505376344086025</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7">
         <f>SUM(I$8:I12)</f>
-        <v>71.428571428571431</v>
+        <v>37.634408602150536</v>
       </c>
       <c r="L12" s="45">
         <v>16</v>
@@ -5817,12 +5817,12 @@
       <c r="H13" s="12"/>
       <c r="I13" s="42">
         <f t="shared" si="1"/>
-        <v>7.6923076923076925</v>
+        <v>7.5268817204301079</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7">
         <f>SUM(I$8:I13)</f>
-        <v>79.120879120879124</v>
+        <v>45.161290322580641</v>
       </c>
       <c r="L13" s="46">
         <v>14</v>
@@ -5838,22 +5838,22 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E14" s="38">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="11">
         <f t="shared" si="0"/>
-        <v>11.5</v>
+        <v>34.5</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="42">
         <f t="shared" si="1"/>
-        <v>5.4945054945054945</v>
+        <v>16.129032258064516</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7">
         <f>SUM(I$8:I14)</f>
-        <v>84.615384615384613</v>
+        <v>61.290322580645153</v>
       </c>
       <c r="L14" s="45">
         <v>11</v>
@@ -5878,12 +5878,12 @@
       <c r="H15" s="12"/>
       <c r="I15" s="42">
         <f t="shared" si="1"/>
-        <v>5.4945054945054945</v>
+        <v>5.376344086021505</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7">
         <f>SUM(I$8:I15)</f>
-        <v>90.109890109890102</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="L15" s="46">
         <v>8</v>
@@ -5898,22 +5898,22 @@
         <v>1.7</v>
       </c>
       <c r="E16" s="38">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="11">
         <f t="shared" si="0"/>
-        <v>6.8</v>
+        <v>23.8</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="42">
         <f t="shared" si="1"/>
-        <v>4.395604395604396</v>
+        <v>15.053763440860216</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7">
         <f>SUM(I$8:I16)</f>
-        <v>94.505494505494497</v>
+        <v>81.72043010752688</v>
       </c>
       <c r="L16" s="45">
         <v>5</v>
@@ -5938,12 +5938,12 @@
       <c r="H17" s="12"/>
       <c r="I17" s="42">
         <f t="shared" si="1"/>
-        <v>3.296703296703297</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7">
         <f>SUM(I$8:I17)</f>
-        <v>97.802197802197796</v>
+        <v>84.946236559139777</v>
       </c>
       <c r="L17" s="46">
         <v>3</v>
@@ -5958,22 +5958,22 @@
         <v>1</v>
       </c>
       <c r="E18" s="38">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="42">
         <f t="shared" si="1"/>
-        <v>1.098901098901099</v>
+        <v>13.978494623655912</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7">
         <f>SUM(I$8:I18)</f>
-        <v>98.901098901098891</v>
+        <v>98.924731182795682</v>
       </c>
       <c r="L18" s="45">
         <v>2</v>
@@ -5998,7 +5998,7 @@
       <c r="H19" s="12"/>
       <c r="I19" s="42">
         <f t="shared" si="1"/>
-        <v>1.098901098901099</v>
+        <v>1.0752688172043012</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7">
@@ -6011,18 +6011,18 @@
       <c r="M19" s="14"/>
     </row>
     <row r="20" spans="2:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="51"/>
+      <c r="D20" s="66"/>
       <c r="E20" s="37">
         <f>SUM(E8:E19)</f>
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="23">
         <f>SUM(G8:G19)</f>
-        <v>282.10000000000002</v>
+        <v>231.10000000000002</v>
       </c>
       <c r="H20" s="22"/>
       <c r="I20" s="24">
@@ -6032,7 +6032,7 @@
       <c r="J20" s="25"/>
       <c r="K20" s="33">
         <f>FREQUENCY(K8:K19,K21)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L20" s="47">
         <f>SUM(L8:L19)</f>
@@ -6046,53 +6046,53 @@
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="58" t="s">
+      <c r="C22" s="68"/>
+      <c r="D22" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="65" t="s">
+      <c r="I22" s="55" t="s">
         <v>15</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="19">
         <f>$G$20</f>
-        <v>282.10000000000002</v>
+        <v>231.10000000000002</v>
       </c>
       <c r="M22" s="6"/>
-      <c r="N22" s="67" t="s">
+      <c r="N22" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="O22" s="68">
+      <c r="O22" s="58">
         <f>$L$22/MAX($L$23,1)</f>
-        <v>3.1</v>
+        <v>2.4849462365591402</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="49" t="s">
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="66"/>
+      <c r="I23" s="56"/>
       <c r="L23" s="1">
         <f>$E$20</f>
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M23" s="1"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="69"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="59"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C24" s="2" t="s">
@@ -6149,7 +6149,7 @@
       </c>
       <c r="O27" s="43" t="str">
         <f>IF(K20&lt;&gt;12,INDEX(C8:C19,$K$20+1),"???")</f>
-        <v>B+</v>
+        <v>C+</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.4">
@@ -6170,6 +6170,10 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="20">
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="D22:G22"/>
     <mergeCell ref="D23:G23"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="B22:C23"/>
@@ -6186,10 +6190,6 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="D22:G22"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -6236,23 +6236,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="21" t="s">
@@ -6263,32 +6263,32 @@
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
       <c r="I3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="34"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="64"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="54"/>
       <c r="I4" s="3" t="s">
         <v>32</v>
       </c>
@@ -6304,50 +6304,50 @@
       <c r="D6" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="56" t="s">
+      <c r="E6" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="57"/>
-      <c r="G6" s="56" t="s">
+      <c r="F6" s="61"/>
+      <c r="G6" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="57"/>
-      <c r="I6" s="56" t="s">
+      <c r="H6" s="61"/>
+      <c r="I6" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="57"/>
+      <c r="J6" s="61"/>
       <c r="K6" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="56" t="s">
+      <c r="L6" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="57"/>
+      <c r="M6" s="61"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C7" s="30"/>
       <c r="D7" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="54" t="s">
+      <c r="F7" s="63"/>
+      <c r="G7" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="54" t="s">
+      <c r="H7" s="63"/>
+      <c r="I7" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="55"/>
+      <c r="J7" s="63"/>
       <c r="K7" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="54" t="s">
+      <c r="L7" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="55"/>
+      <c r="M7" s="63"/>
     </row>
     <row r="8" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="8" t="s">
@@ -6714,10 +6714,10 @@
       <c r="M19" s="14"/>
     </row>
     <row r="20" spans="2:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="51"/>
+      <c r="D20" s="66"/>
       <c r="E20" s="37">
         <f>SUM(E8:E19)</f>
         <v>0</v>
@@ -6749,18 +6749,18 @@
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="58" t="s">
+      <c r="C22" s="68"/>
+      <c r="D22" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="65" t="s">
+      <c r="I22" s="55" t="s">
         <v>15</v>
       </c>
       <c r="J22" s="4"/>
@@ -6770,32 +6770,32 @@
         <v>#VALUE!</v>
       </c>
       <c r="M22" s="6"/>
-      <c r="N22" s="67" t="s">
+      <c r="N22" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="O22" s="68" t="e">
+      <c r="O22" s="58" t="e">
         <f>$L$22/MAX($L$23,1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="49" t="s">
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="66"/>
+      <c r="I23" s="56"/>
       <c r="L23" s="1">
         <f>$E$20</f>
         <v>0</v>
       </c>
       <c r="M23" s="1"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="69"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="59"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C24" s="2" t="s">
@@ -6873,6 +6873,10 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="20">
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="D22:G22"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="C4:D4"/>
@@ -6889,10 +6893,6 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="B22:C23"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="D22:G22"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -6939,23 +6939,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="21" t="s">
@@ -6966,32 +6966,32 @@
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
       <c r="I3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="34"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="64"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="54"/>
       <c r="I4" s="3" t="s">
         <v>32</v>
       </c>
@@ -7007,50 +7007,50 @@
       <c r="D6" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="56" t="s">
+      <c r="E6" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="57"/>
-      <c r="G6" s="56" t="s">
+      <c r="F6" s="61"/>
+      <c r="G6" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="57"/>
-      <c r="I6" s="56" t="s">
+      <c r="H6" s="61"/>
+      <c r="I6" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="57"/>
+      <c r="J6" s="61"/>
       <c r="K6" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="56" t="s">
+      <c r="L6" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="57"/>
+      <c r="M6" s="61"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C7" s="30"/>
       <c r="D7" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="54" t="s">
+      <c r="F7" s="63"/>
+      <c r="G7" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="54" t="s">
+      <c r="H7" s="63"/>
+      <c r="I7" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="55"/>
+      <c r="J7" s="63"/>
       <c r="K7" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="54" t="s">
+      <c r="L7" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="55"/>
+      <c r="M7" s="63"/>
     </row>
     <row r="8" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="8" t="s">
@@ -7393,10 +7393,10 @@
       <c r="M19" s="14"/>
     </row>
     <row r="20" spans="2:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="51"/>
+      <c r="D20" s="66"/>
       <c r="E20" s="37">
         <f>SUM(E8:E19)</f>
         <v>0</v>
@@ -7428,18 +7428,18 @@
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="58" t="s">
+      <c r="C22" s="68"/>
+      <c r="D22" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="65" t="s">
+      <c r="I22" s="55" t="s">
         <v>15</v>
       </c>
       <c r="J22" s="4"/>
@@ -7449,32 +7449,32 @@
         <v>0</v>
       </c>
       <c r="M22" s="6"/>
-      <c r="N22" s="67" t="s">
+      <c r="N22" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="O22" s="68">
+      <c r="O22" s="58">
         <f>$L$22/MAX($L$23,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="49" t="s">
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="66"/>
+      <c r="I23" s="56"/>
       <c r="L23" s="1">
         <f>$E$20</f>
         <v>0</v>
       </c>
       <c r="M23" s="1"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="69"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="59"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C24" s="2" t="s">
@@ -7552,6 +7552,10 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="20">
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="D22:G22"/>
     <mergeCell ref="D23:G23"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="B22:C23"/>
@@ -7568,10 +7572,6 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="D22:G22"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
